--- a/artfynd/A 47392-2022.xlsx
+++ b/artfynd/A 47392-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101818220</v>
+        <v>102887208</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,54 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503518.8313935641</v>
+        <v>503503.6427510905</v>
       </c>
       <c r="R2" t="n">
-        <v>7008271.427278268</v>
+        <v>7008527.248445525</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +766,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +776,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,12 +784,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Endast räknat blommande/överblommade ex.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -792,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102887208</v>
+        <v>102887209</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -848,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503503.6427510905</v>
+        <v>503500.0590693383</v>
       </c>
       <c r="R3" t="n">
-        <v>7008527.248445525</v>
+        <v>7008498.819147208</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -926,7 +948,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102887209</v>
+        <v>102887214</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -961,7 +983,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -982,10 +1004,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503500.0590693383</v>
+        <v>503561.1438669401</v>
       </c>
       <c r="R4" t="n">
-        <v>7008498.819147208</v>
+        <v>7008417.669112943</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1060,10 +1082,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102887214</v>
+        <v>102887194</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>95525</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,54 +1094,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503561.1438669401</v>
+        <v>503562.9297659012</v>
       </c>
       <c r="R5" t="n">
-        <v>7008417.669112943</v>
+        <v>7008437.07306868</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1164,18 +1170,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Endast räknat blommande/överblommade ex.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102887194</v>
+        <v>102887224</v>
       </c>
       <c r="B6" t="n">
-        <v>95525</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1206,38 +1206,54 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221941</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503562.9297659012</v>
+        <v>503516.8563916786</v>
       </c>
       <c r="R6" t="n">
-        <v>7008437.07306868</v>
+        <v>7008425.291131906</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1282,12 +1298,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Endast räknat blommande/överblommade ex.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1306,7 +1328,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102887224</v>
+        <v>102887215</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1341,7 +1363,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1362,10 +1384,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503516.8563916786</v>
+        <v>503532.6372460596</v>
       </c>
       <c r="R7" t="n">
-        <v>7008425.291131906</v>
+        <v>7008455.539238772</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1440,7 +1462,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102887215</v>
+        <v>109531178</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1475,34 +1497,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>503532.6372460596</v>
+        <v>503521.8299306054</v>
       </c>
       <c r="R8" t="n">
-        <v>7008455.539238772</v>
+        <v>7008422.138087351</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1526,7 +1536,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1536,7 +1546,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1544,40 +1554,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Endast räknat blommande/överblommade ex.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109531178</v>
+        <v>109531179</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>95572</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1586,42 +1590,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>221063</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådfräken</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Equisetum scirpoides</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>Michx.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503521.8299306054</v>
+        <v>503516.8681880152</v>
       </c>
       <c r="R9" t="n">
-        <v>7008422.138087351</v>
+        <v>7008414.462105003</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109531179</v>
+        <v>103956827</v>
       </c>
       <c r="B10" t="n">
-        <v>95572</v>
+        <v>96239</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1706,37 +1706,41 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221063</v>
+        <v>504</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådfräken</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Equisetum scirpoides</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503516.8681880152</v>
+        <v>503492.0137328925</v>
       </c>
       <c r="R10" t="n">
-        <v>7008414.462105003</v>
+        <v>7008418.044809995</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1770,7 +1774,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1778,31 +1782,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Område med minst 10 stånd.</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
+          <t>Via Johan Råghall</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>103956827</v>
+        <v>109531176</v>
       </c>
       <c r="B11" t="n">
         <v>96239</v>
@@ -1836,23 +1846,19 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503492.0137328925</v>
+        <v>503488.8392366802</v>
       </c>
       <c r="R11" t="n">
-        <v>7008418.044809995</v>
+        <v>7008428.870405483</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1876,7 +1882,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1886,7 +1892,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1894,37 +1900,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Område med minst 10 stånd.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Via Johan Råghall</t>
+          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109531176</v>
+        <v>109531173</v>
       </c>
       <c r="B12" t="n">
         <v>96239</v>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503488.8392366802</v>
+        <v>503496.0826251701</v>
       </c>
       <c r="R12" t="n">
-        <v>7008428.870405483</v>
+        <v>7008415.793161616</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109531173</v>
+        <v>101818220</v>
       </c>
       <c r="B13" t="n">
-        <v>96239</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2048,25 +2048,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503496.0826251701</v>
+        <v>503518.8313935641</v>
       </c>
       <c r="R13" t="n">
-        <v>7008415.793161616</v>
+        <v>7008271.427278268</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2136,12 +2136,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>

--- a/artfynd/A 47392-2022.xlsx
+++ b/artfynd/A 47392-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>102887208</v>
+        <v>101818220</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,54 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503503.6427510905</v>
+        <v>503518.8313935641</v>
       </c>
       <c r="R2" t="n">
-        <v>7008527.248445525</v>
+        <v>7008271.427278268</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -766,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -776,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -784,18 +768,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Endast räknat blommande/överblommade ex.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -814,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102887209</v>
+        <v>102887208</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -870,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503500.0590693383</v>
+        <v>503503.6427510905</v>
       </c>
       <c r="R3" t="n">
-        <v>7008498.819147208</v>
+        <v>7008527.248445525</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -948,7 +926,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102887214</v>
+        <v>102887209</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -983,7 +961,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1004,10 +982,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503561.1438669401</v>
+        <v>503500.0590693383</v>
       </c>
       <c r="R4" t="n">
-        <v>7008417.669112943</v>
+        <v>7008498.819147208</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1082,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102887194</v>
+        <v>102887214</v>
       </c>
       <c r="B5" t="n">
-        <v>95525</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1094,38 +1072,54 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503562.9297659012</v>
+        <v>503561.1438669401</v>
       </c>
       <c r="R5" t="n">
-        <v>7008437.07306868</v>
+        <v>7008417.669112943</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1170,12 +1164,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Endast räknat blommande/överblommade ex.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102887224</v>
+        <v>102887194</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>95525</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1206,54 +1206,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503516.8563916786</v>
+        <v>503562.9297659012</v>
       </c>
       <c r="R6" t="n">
-        <v>7008425.291131906</v>
+        <v>7008437.07306868</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1298,18 +1282,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Endast räknat blommande/överblommade ex.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1328,7 +1306,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102887215</v>
+        <v>102887224</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1363,7 +1341,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1384,10 +1362,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>503532.6372460596</v>
+        <v>503516.8563916786</v>
       </c>
       <c r="R7" t="n">
-        <v>7008455.539238772</v>
+        <v>7008425.291131906</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1462,7 +1440,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109531178</v>
+        <v>102887215</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1497,22 +1475,34 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>503521.8299306054</v>
+        <v>503532.6372460596</v>
       </c>
       <c r="R8" t="n">
-        <v>7008422.138087351</v>
+        <v>7008455.539238772</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1536,7 +1526,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1546,7 +1536,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1554,34 +1544,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Endast räknat blommande/överblommade ex.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109531179</v>
+        <v>109531178</v>
       </c>
       <c r="B9" t="n">
-        <v>95572</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1590,38 +1586,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221063</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådfräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Equisetum scirpoides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Michx.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>503516.8681880152</v>
+        <v>503521.8299306054</v>
       </c>
       <c r="R9" t="n">
-        <v>7008414.462105003</v>
+        <v>7008422.138087351</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103956827</v>
+        <v>109531179</v>
       </c>
       <c r="B10" t="n">
-        <v>96239</v>
+        <v>95572</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1706,41 +1706,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>504</v>
+        <v>221063</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Trådfräken</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Equisetum scirpoides</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503492.0137328925</v>
+        <v>503516.8681880152</v>
       </c>
       <c r="R10" t="n">
-        <v>7008418.044809995</v>
+        <v>7008414.462105003</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1764,7 +1760,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1774,7 +1770,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1782,37 +1778,31 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Område med minst 10 stånd.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Via Johan Råghall</t>
+          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109531176</v>
+        <v>103956827</v>
       </c>
       <c r="B11" t="n">
         <v>96239</v>
@@ -1846,19 +1836,23 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Brana Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503488.8392366802</v>
+        <v>503492.0137328925</v>
       </c>
       <c r="R11" t="n">
-        <v>7008428.870405483</v>
+        <v>7008418.044809995</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1882,7 +1876,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1892,7 +1886,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1900,31 +1894,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Område med minst 10 stånd.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
+          <t>Via Johan Råghall</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109531173</v>
+        <v>109531176</v>
       </c>
       <c r="B12" t="n">
         <v>96239</v>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>503496.0826251701</v>
+        <v>503488.8392366802</v>
       </c>
       <c r="R12" t="n">
-        <v>7008415.793161616</v>
+        <v>7008428.870405483</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101818220</v>
+        <v>109531173</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>96239</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2048,25 +2048,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>503518.8313935641</v>
+        <v>503496.0826251701</v>
       </c>
       <c r="R13" t="n">
-        <v>7008271.427278268</v>
+        <v>7008415.793161616</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-05-23</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2136,12 +2136,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Thomas Stålhandske, Pär Hedberg, Pontus Wallén, Johan Staaf, Erik Lundmark, Eva Romell, Sarah J Leander, Lisa Linck, Maria Gylle, Maria Noro-Larsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
